--- a/E-Learning/App_Data/ThongKeNhapKNL.xlsx
+++ b/E-Learning/App_Data/ThongKeNhapKNL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoaphatcomvn-my.sharepoint.com/personal/phuocnv1_hoaphat_com_vn/Documents/Working/Software/ELEARNING_DEV/KNL/E-Learning/App_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - hoaphat.com.vn\Working\Software\ELEARNING_DEV\E-Learning\E-Learning\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{7FCA1C5F-E5B8-4F7A-8F68-1AAABB97498D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB850785-C1E3-46DE-BF29-9EC259C9FD95}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{7FCA1C5F-E5B8-4F7A-8F68-1AAABB97498D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{87120777-F668-4675-81B4-CE8174AD3C11}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60E312A9-B38A-4080-82C8-0F62C17AC0BD}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ThongKe_KNL!$A$4:$Y$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -108,6 +105,12 @@
   </si>
   <si>
     <t>SL Vị trí Phân quyền tự động</t>
+  </si>
+  <si>
+    <t>Mã định danh vị trí</t>
+  </si>
+  <si>
+    <t>Tình trạng hiệu lực vị trí</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -265,11 +268,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -277,35 +289,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBD710F-664C-4EDA-B7A0-B52FF52E5DC4}">
-  <dimension ref="A2:Z4"/>
+  <dimension ref="A2:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,113 +669,119 @@
     <col min="26" max="26" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="4" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="9" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="AA3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+    <row r="4" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
@@ -785,19 +809,28 @@
       <c r="Q4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:Y4" xr:uid="{EFBD710F-664C-4EDA-B7A0-B52FF52E5DC4}"/>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="A2:Z2"/>
     <mergeCell ref="O3:Q3"/>
@@ -814,11 +847,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
